--- a/src/renderer/service/contacts_template.xlsx
+++ b/src/renderer/service/contacts_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshijiang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshijiang/Workspace/wechat-analyser/src/renderer/service/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="8300" windowWidth="28160" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="920" windowWidth="28160" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>最近聊天时间</t>
-  </si>
-  <si>
-    <t>头像地址</t>
+    <t>对方最近聊天时间</t>
+  </si>
+  <si>
+    <t>入群时间</t>
+  </si>
+  <si>
+    <t>印象发送人0</t>
+  </si>
+  <si>
+    <t>印象发送时间0</t>
+  </si>
+  <si>
+    <t>印象消息0</t>
+  </si>
+  <si>
+    <t>印象发送人1</t>
+  </si>
+  <si>
+    <t>印象发送时间1</t>
+  </si>
+  <si>
+    <t>印象消息1</t>
+  </si>
+  <si>
+    <t>印象发送人2</t>
+  </si>
+  <si>
+    <t>印象发送时间2</t>
+  </si>
+  <si>
+    <t>印象消息2</t>
   </si>
 </sst>
 </file>
@@ -350,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -358,9 +385,18 @@
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="11" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,6 +405,33 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
